--- a/biology/Botanique/Liste_de_parcs_et_jardins/Liste_de_parcs_et_jardins.xlsx
+++ b/biology/Botanique/Liste_de_parcs_et_jardins/Liste_de_parcs_et_jardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense les parcs et jardins ouverts au public et dignes d'intérêt. Toutefois les jardins botaniques, les jardins zoologiques et les parcs naturels font l'objet de listes distinctes.
 Voir aussi :
@@ -518,47 +530,361 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Algérie
-Liste des parcs et jardins d'Alger
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des parcs et jardins d'Alger
 Liste des parcs et jardins d'Oran
 Liste des parcs et jardins de Constantine
-Liste des parcs et jardins de Biskra
-Allemagne
-Parc d'azalées et de rhododendrons de Kromlau à Gablenz (Saxe)
-Belgique
-Brésil
-Parc d'Ibirapuera, São Paulo
+Liste des parcs et jardins de Biskra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parc d'azalées et de rhododendrons de Kromlau à Gablenz (Saxe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parc d'Ibirapuera, São Paulo
 Parc de la Luz, São Paulo
-Parc Trianon, São Paulo
-Canada
-Parc du Mont-Royal, Montréal
+Parc Trianon, São Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Parc du Mont-Royal, Montréal
 Parc Maisonneuve, Montréal
 Parc Lafontaine, Montréal
 Parc des Champs-de-Bataille, Québec
 Butchart Gardens, banlieue de Victoria, Colombie-Britannique
 Stanley Park, Vancouver, Colombie-Britannique
 Jardins de Métis, Grand-Métis, Québec
-Les Jardins d'Emmarocalles, Ripon, Québec
-Chine
-Jardin Yuyuan (jardin de la pluie, Shanghai)
+Les Jardins d'Emmarocalles, Ripon, Québec</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jardin Yuyuan (jardin de la pluie, Shanghai)
 Jardin Baihe (Pékin).
-Jardin Yihe (Pékin)
-Hong Kong
-Liste des parcs et jardins de Hong Kong
-Danemark
-Kongens Have (Jardin royal), Copenhague
-Espagne
-Jardins de l'Alhambra (Grenade)
+Jardin Yihe (Pékin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des parcs et jardins de Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Danemark</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kongens Have (Jardin royal), Copenhague</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jardins de l'Alhambra (Grenade)
 Parc de María Luisa (Séville)
 Parc du Buen Retiro (Madrid)
-Jardins du Turia (Valence)
-États-Unis
-Central Park, New York
+Jardins du Turia (Valence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Central Park, New York
 Golden Gate Park, San Francisco
 Hakone Gardens, Saratoga (Californie)
-Lincoln Park, Chicago
-France
-Liste des parcs et jardins de Paris
+Lincoln Park, Chicago</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des parcs et jardins de Paris
 Liste des parcs et jardins sur l'île de la Réunion
 Liste des parcs et jardins des Yvelines
 Liste des parcs et jardins de l'agglomération Tourangelle
@@ -581,12 +907,115 @@
 Titus le jardin des Nymphaeas à Concoules
  Parc et jardins du château de Lanniron à Quimper
 Le Comité des Parcs et Jardins de France gère une liste de près de 1 200 parcs et jardins en France (en fin septembre 2009).
-Inde
-Jardins de Shalimar à Srinagar
-Irlande
-Garden of Remembrance, Dublin
-Iran
-Jardin de Fin (Kashan)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jardins de Shalimar à Srinagar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Irlande</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Garden of Remembrance, Dublin</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jardin de Fin (Kashan)
 Jardin de Delgosha (Chiraz)
 Jardin de Dowlatabad (Yazd)
 Jardin d'Eram (Chiraz)
@@ -604,21 +1033,156 @@
 Jardin de Mosalla (Nain)
 Jardin de Tchechmeh (Behshahr)
 Jardin de Golshan (Tabas)
-Jardin de Qadamgah (Nichapour)
-Italie
-Jardin de Ninfa (Ninfa, province du Latium près de Rome).
+Jardin de Qadamgah (Nichapour)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Jardin de Ninfa (Ninfa, province du Latium près de Rome).
 Oasis urbain du Tibre, à Rome, dans le quartier Flaminio.
-Parc de la Caffarella (parc situé dans la partie sud-est de Rome)
-Maroc
-Jardin Majorelle
-Jardins de l'Agdal
-Pakistan
-Hazuri Bagh, Lahore
+Parc de la Caffarella (parc situé dans la partie sud-est de Rome)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jardin Majorelle
+Jardins de l'Agdal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hazuri Bagh, Lahore
 Iqbal Park, Lahore
-Jardins de Shalimar, Lahore
-Royaume-Uni
-Suisse
-Parc de La Grange, Genève
+Jardins de Shalimar, Lahore</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_parcs_et_jardins</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste de parcs et jardins par pays</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Parc de La Grange, Genève
 Parc de Milan, Lausanne</t>
         </is>
       </c>
